--- a/data/ch07/webpage_data/벅스_차트_주간_Top100.xlsx
+++ b/data/ch07/webpage_data/벅스_차트_주간_Top100.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPyExcel\data\ch07\webpage_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BBEC47-4D5A-4998-8BE5-8530D2F35F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7665" yWindow="2040" windowWidth="12690" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -547,12 +553,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -560,8 +566,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -607,15 +620,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -657,7 +678,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,9 +710,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,6 +762,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -898,14 +955,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -927,7 +989,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -938,7 +1000,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -949,7 +1011,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -960,7 +1022,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -971,7 +1033,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -982,7 +1044,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -993,7 +1055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1004,7 +1066,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1015,7 +1077,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1026,7 +1088,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1037,7 +1099,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1048,7 +1110,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1059,7 +1121,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1070,7 +1132,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1081,7 +1143,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1092,7 +1154,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1103,7 +1165,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1114,7 +1176,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1125,7 +1187,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1136,7 +1198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1147,7 +1209,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1158,7 +1220,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1169,7 +1231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1180,7 +1242,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1191,7 +1253,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1202,7 +1264,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1213,7 +1275,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1224,7 +1286,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1235,7 +1297,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1246,7 +1308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1257,7 +1319,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1268,7 +1330,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1279,7 +1341,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1290,7 +1352,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1301,7 +1363,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1312,7 +1374,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1323,7 +1385,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1334,7 +1396,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1345,7 +1407,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1356,7 +1418,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1367,7 +1429,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1378,7 +1440,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1389,7 +1451,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1400,7 +1462,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1411,7 +1473,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1422,7 +1484,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1433,7 +1495,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1444,7 +1506,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1455,7 +1517,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1466,7 +1528,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1477,7 +1539,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1488,7 +1550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1499,7 +1561,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1510,7 +1572,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1521,7 +1583,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1532,7 +1594,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1543,7 +1605,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1554,7 +1616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1565,7 +1627,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1576,7 +1638,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1587,7 +1649,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1598,7 +1660,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1609,7 +1671,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1620,7 +1682,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1631,7 +1693,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1642,7 +1704,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1653,7 +1715,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1664,7 +1726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1675,7 +1737,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1686,7 +1748,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1697,7 +1759,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1708,7 +1770,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1719,7 +1781,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1730,7 +1792,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1741,7 +1803,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1752,7 +1814,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1763,7 +1825,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1774,7 +1836,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1785,7 +1847,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1796,7 +1858,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1807,7 +1869,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1818,7 +1880,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1829,7 +1891,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1840,7 +1902,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1851,7 +1913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1862,7 +1924,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1873,7 +1935,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1884,7 +1946,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1895,7 +1957,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1906,7 +1968,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1917,7 +1979,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1928,7 +1990,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1939,7 +2001,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1950,7 +2012,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1961,7 +2023,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1972,7 +2034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1983,7 +2045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1994,7 +2056,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2005,7 +2067,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2017,6 +2079,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>